--- a/results/dhs-program-surveys.xlsx
+++ b/results/dhs-program-surveys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4FCD37-83C3-4FC4-9D2F-709C232B780A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E6F707-2812-4F01-97DF-5B506AEAA56B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,87 +25,188 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="71">
   <si>
     <t>Phase 4 (1997-2003) (English) </t>
   </si>
   <si>
-    <t>QUESTIONS AND FILTERS</t>
-  </si>
-  <si>
     <t>What is the main source of drinking water for members of your household?</t>
   </si>
   <si>
     <t>How long does it take to go there, get water, and come back?</t>
   </si>
   <si>
-    <t>PIPED WATER
-PIPED INTO DWELLING  11
-PIPED TO YARD/PLOT  12 
-PUBLIC TAP/STANDPIPE 13
-WATER FROM OPEN WELL                  OPEN WELL IN DWELLING  21
-OPEN WELL IN YARD/PLOT 22                        
-OPEN PUBLIC WELL 23                         WATER FROM COVERED WELL OR BOREHOLE                                            PROTECTED WELL IN DWELLING 31
-PROTECTED WELL IN YARD/PLOT  32
-PROTECTED PUBLIC WELL 33          
-SURFACE WATER                                  SPRING 41                                            RIVER/STREAM 42                                POND/LAKE 43                                            DAM 44                                                           RAINWATER 51                                                      TANKER TRUCK 61                                               BOTTLED WATER  71                                                    
+    <t>Phase 5 (2003-2008) (English) </t>
+  </si>
+  <si>
+    <t>Where is that water source located?</t>
+  </si>
+  <si>
+    <t>Phase 6 (2008-2013) (English, French) </t>
+  </si>
+  <si>
+    <t>Phase 7 (2013-2018) (English, French) </t>
+  </si>
+  <si>
+    <t>Phase 8 (2018-2023)</t>
+  </si>
+  <si>
+    <t>PIPED WATER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATER FROM OPEN WELL  </t>
+  </si>
+  <si>
+    <t>OPEN WELL IN DWELLING  21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEN WELL IN YARD/PLOT 22  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEN PUBLIC WELL 23    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATER FROM COVERED WELL OR BOREHOLE   </t>
+  </si>
+  <si>
+    <t>PROTECTED WELL IN DWELLING 31</t>
+  </si>
+  <si>
+    <t>PROTECTED WELL IN YARD/PLOT  32</t>
+  </si>
+  <si>
+    <t>PROTECTED PUBLIC WELL 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURFACE WATER  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPRING 41 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIVER/STREAM 42  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POND/LAKE 43 </t>
+  </si>
+  <si>
+    <t>DAM 44</t>
+  </si>
+  <si>
+    <t>RAINWATER 51</t>
+  </si>
+  <si>
+    <t>TANKER TRUCK 61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 OTHER 96</t>
   </si>
   <si>
-    <t>CODING CATEGORIES</t>
-  </si>
-  <si>
-    <t>MINUTES                                                     DON'T KNOW</t>
-  </si>
-  <si>
-    <t>Phase 5 (2003-2008) (English) </t>
-  </si>
-  <si>
-    <t>Where is that water source located?</t>
-  </si>
-  <si>
-    <t>IN OWN DWELLING 1                  IN OWN YARD/PLOT  2  ELSEWHERE 3</t>
-  </si>
-  <si>
-    <t>Phase 6 (2008-2013) (English, French) </t>
-  </si>
-  <si>
-    <t>What is the main source of drinking water for members of your
-household?</t>
-  </si>
-  <si>
-    <t>Phase 7 (2013-2018) (English, French) </t>
-  </si>
-  <si>
-    <t>Phase 8 (2018-2023)</t>
-  </si>
-  <si>
-    <t>PIPED WATER                              PIPED INTO DWELLING 11 PIPED TO YARD/PLOT 12  PUBLIC TAP/STANDPIPE 13 TUBE WELL OR BOREHOLE 21 DUG WELL PROTECTED WELL 31                                 UNPROTECTED WELL 32 WATER FROM SPRING PROTECTED SPRING  41 UNPROTECTED SPRING 42 RAINWATER 51                  TANKER TRUCK  61                CART WITH SMALL TANK 71 SURFACE WATER (RIVER/DAM/  LAKE/POND/STREAM/CANAL/ IRRIGATION CHANNEL) 81 BOTTLED WATER 91             OTHER 96</t>
-  </si>
-  <si>
-    <t>PIPED WATER                       PIPED INTO DWELLING 11 PIPED TO YARD/PLOT 12  PUBLIC TAP/STANDPIPE 13 TUBE WELL OR BOREHOLE 21 DUG WELL PROTECTED WELL 31                                 UNPROTECTED WELL 32 WATER FROM SPRING PROTECTED SPRING  41 UNPROTECTED SPRING 42 RAINWATER 51                  TANKER TRUCK  61                CART WITH SMALL TANK 71 SURFACE WATER (RIVER/DAM/  LAKE/POND/STREAM/CANAL/ IRRIGATION CHANNEL) 81 BOTTLED WATER 91             OTHER 96</t>
+    <t xml:space="preserve">BOTTLED WATER  71 </t>
+  </si>
+  <si>
+    <t>MINUTES</t>
+  </si>
+  <si>
+    <t>DON'T KNOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN OWN DWELLING 1                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN OWN YARD/PLOT  2  </t>
+  </si>
+  <si>
+    <t>ELSEWHERE 3</t>
+  </si>
+  <si>
+    <t>IN OWN DWELLING 2</t>
+  </si>
+  <si>
+    <t>IN OWN DWELLING 3</t>
+  </si>
+  <si>
+    <t>IN OWN DWELLING 4</t>
+  </si>
+  <si>
+    <t>IN OWN YARD/PLOT  3</t>
+  </si>
+  <si>
+    <t>IN OWN YARD/PLOT  4</t>
+  </si>
+  <si>
+    <t>IN OWN YARD/PLOT  5</t>
+  </si>
+  <si>
+    <t>ELSEWHERE 4</t>
+  </si>
+  <si>
+    <t>ELSEWHERE 5</t>
+  </si>
+  <si>
+    <t>ELSEWHERE 6</t>
+  </si>
+  <si>
+    <t>PIPED INTO DWELLING (11)</t>
+  </si>
+  <si>
+    <t>PIPED TO YARD/PLOT  (12)</t>
+  </si>
+  <si>
+    <t>PUBLIC TAP/STANDPIPE (13)</t>
+  </si>
+  <si>
+    <t>TUBE WELL OR BOREHOLE (21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DUG WELL PROTECTED WELL (31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                    </t>
+  </si>
+  <si>
+    <t>UNPROTECTED WELL (32)</t>
+  </si>
+  <si>
+    <t>UNPROTECTED SPRING (42)</t>
+  </si>
+  <si>
+    <t>RAINWATER (51)</t>
+  </si>
+  <si>
+    <t>TANKER TRUCK  (61)</t>
+  </si>
+  <si>
+    <t>CART WITH SMALL TANK (71)</t>
+  </si>
+  <si>
+    <t>BOTTLED WATER (91)</t>
+  </si>
+  <si>
+    <t>OTHER (96)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATER FROM SPRING </t>
+  </si>
+  <si>
+    <t>PROTECTED SPRING  (41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURFACE WATER </t>
+  </si>
+  <si>
+    <t>(RIVER/DAM/  LAKE/POND/STREAM/CANAL/ IRRIGATION CHANNEL) (81)</t>
+  </si>
+  <si>
+    <t>DUG WELL</t>
+  </si>
+  <si>
+    <t>WATER FROM SPRING</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PIPED WATER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                        PIPED INTO DWELLING 11                                PIPED TO YARD/PLOT  12                                         PIPED TO NEIGHBOR  13                                         PUBLIC TAP/STANDPIPE 14                                        TUBE WELL OR BOREHOLE  21                                  </t>
+      <t xml:space="preserve">                                </t>
     </r>
     <r>
       <rPr>
@@ -116,7 +217,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">DUG WELL                                                   </t>
+      <t xml:space="preserve">                                                   </t>
     </r>
     <r>
       <rPr>
@@ -126,7 +227,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">PROTECTED WELL  31                                UNPROTECTED WELL 32                                          </t>
+      <t xml:space="preserve">                                                                          </t>
     </r>
     <r>
       <rPr>
@@ -137,7 +238,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">WATER FROM SPRING    </t>
+      <t xml:space="preserve">    </t>
     </r>
     <r>
       <rPr>
@@ -147,15 +248,48 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">                           PROTECTED SPRING  41                                                                UNPROTECTED SPRING 42                           RAINWATER  51                                                       TANKER TRUCK  61                                                     CART WITH SMALL TANK 71                                  SURFACE WATER (RIVER/DAM/ LAKE/POND/STREAM/CANAL/ IRRIGATION CHANNEL) 81                                                                      BOTTLED WATER 91                                               OTHER 96</t>
+      <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                         </t>
     </r>
+  </si>
+  <si>
+    <t>PIPED TO NEIGHBOR  (13)</t>
+  </si>
+  <si>
+    <t>PUBLIC TAP/STANDPIPE (14)</t>
+  </si>
+  <si>
+    <t>TUBE WELL OR BOREHOLE  (21)</t>
+  </si>
+  <si>
+    <t>PROTECTED WELL  (31)</t>
+  </si>
+  <si>
+    <t>RAINWATER  (51)</t>
+  </si>
+  <si>
+    <t>SURFACE WATER (RIVER/DAM/ LAKE/POND/STREAM/CANAL/ IRRIGATION CHANNEL) (81)</t>
+  </si>
+  <si>
+    <t>CODING CATEGORIES (CG)</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>QUESTIONS AND FILTERS (Q&amp;F)</t>
+  </si>
+  <si>
+    <t>Q&amp;F</t>
+  </si>
+  <si>
+    <t>RIVER/DAM/LAKE/POND/STREAM/CANAL/IRRIGATION CHANNEL(81)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +313,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,7 +334,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -200,43 +346,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -249,6 +358,37 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -259,13 +399,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -278,7 +411,9 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -287,7 +422,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -298,7 +435,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -309,12 +448,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -322,26 +465,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -623,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,152 +792,644 @@
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
     <col min="3" max="4" width="25.88671875" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
     <col min="6" max="6" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="D24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>9</v>
+      <c r="D27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://dhsprogram.com/pubs/pdf/DHSQ4/DHS-IV-Model-A.pdf.pdf" xr:uid="{D1630CDE-35EF-450C-B241-6F8051082A3D}"/>
-    <hyperlink ref="C1" r:id="rId2" display="https://dhsprogram.com/pubs/pdf/DHSQ5/DHS5-Household-QRE-15-Oct-2008.pdf" xr:uid="{881536F5-C7BA-454D-A2E0-D85B70530476}"/>
-    <hyperlink ref="D1" r:id="rId3" display="https://dhsprogram.com/pubs/pdf/DHSQ6/DHS6_Questionnaires_5Nov2012_DHSQ6.pdf" xr:uid="{E47A3376-AB4D-4C55-8E5E-8C89CBB3D7DA}"/>
-    <hyperlink ref="E1" r:id="rId4" display="https://dhsprogram.com/pubs/pdf/DHSQ7/DHS7_Household_QRE_EN_16Mar2017_DHSQ7.pdf" xr:uid="{4A2A02B9-02B1-4239-ACE9-D9CF4ECC0B34}"/>
-  </hyperlinks>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>